--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,299 +417,288 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39765</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>1.560682679516057</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>40130</v>
       </c>
       <c r="B3">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>1.834695583582491</v>
       </c>
       <c r="D3">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E3">
-        <v>1.550936023497163</v>
+        <v>2.1453644888767</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40130</v>
+        <v>40494</v>
       </c>
       <c r="B4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C4">
-        <v>1.834695583582491</v>
+        <v>1.767835936772166</v>
       </c>
       <c r="D4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.889082028157629</v>
+        <v>1.317672174811868</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40494</v>
+        <v>40862</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.767835936772166</v>
+        <v>1.074400434091016</v>
       </c>
       <c r="D5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.079453537436748</v>
+        <v>1.501816644427989</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40862</v>
+        <v>41228</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.074400434091016</v>
+        <v>0.9212998022035679</v>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.9325232237207937</v>
+        <v>1.028888107831327</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41228</v>
+        <v>41592</v>
       </c>
       <c r="B7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.9212998022035679</v>
+        <v>1.141837882844188</v>
       </c>
       <c r="D7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.9867800023970696</v>
+        <v>1.303605130836716</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41592</v>
+        <v>41957</v>
       </c>
       <c r="B8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.141837882844188</v>
+        <v>1.335361538769475</v>
       </c>
       <c r="D8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.372244540826872</v>
+        <v>1.192378712846454</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41957</v>
+        <v>42321</v>
       </c>
       <c r="B9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.335361538769475</v>
+        <v>1.202048372526998</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.286349615500271</v>
+        <v>1.210961441871872</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42321</v>
+        <v>42689</v>
       </c>
       <c r="B10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.202048372526998</v>
+        <v>2.677488680362305</v>
       </c>
       <c r="D10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.809180028785785</v>
+        <v>2.033218171624651</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>42689</v>
+        <v>43053</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.677488680362305</v>
+        <v>2.466954516646402</v>
       </c>
       <c r="D11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.633898103989218</v>
+        <v>2.152537330144288</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43053</v>
+        <v>43418</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.466954516646402</v>
+        <v>1.401189216021326</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.299687914466841</v>
+        <v>1.966855307908655</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.401189216021326</v>
+        <v>2.217567799050979</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.193307704714287</v>
+        <v>1.950353221540246</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>43783</v>
+        <v>44159</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.217567799050979</v>
+        <v>2.139672475020404</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.127197886948307</v>
+        <v>2.210985773414453</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.139672475020404</v>
+        <v>2.100991693542231</v>
       </c>
       <c r="D15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E15">
-        <v>1.925031960518697</v>
+        <v>1.114171399050901</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44525</v>
+        <v>44890</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.100991693542231</v>
+        <v>0.8967077601845341</v>
       </c>
       <c r="D16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.2423318260859064</v>
+        <v>0.1338254721205745</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.8967077601845341</v>
+        <v>0.782207885866093</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.4168642513032284</v>
+        <v>1.823564868738359</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45254</v>
+        <v>45618</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.782207885866093</v>
+        <v>1.508385007449875</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.787977508297245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>1.508385007449875</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
-      </c>
-      <c r="E19">
-        <v>0.5010010003247523</v>
+        <v>0.6266145540918089</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>1.75539628881467</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>1.560682679516057</v>
+        <v>1.327368416067398</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>2.213911448916162</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>1.834695583582491</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>2.1453644888767</v>
+        <v>2.649257112350067</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>2.533533936850563</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>1.767835936772166</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>1.317672174811868</v>
+        <v>1.815660192323709</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>2.088987486264915</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.074400434091016</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>1.501816644427989</v>
+        <v>2.332261646026201</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>1.212544822741002</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>0.9212998022035679</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>1.028888107831327</v>
+        <v>1.839804681163293</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>1.196776590518644</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>1.141837882844188</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>1.303605130836716</v>
+        <v>0.670590452940556</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.4712609263772594</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>1.335361538769475</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>1.192378712846454</v>
+        <v>0.8520644823059476</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>0.8783377572271434</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>1.202048372526998</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>1.210961441871872</v>
+        <v>1.474590898715178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>2.29066283401107</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>2.677488680362305</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>2.033218171624651</v>
+        <v>2.597902967862775</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>4.109890522944348</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>2.466954516646402</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>2.152537330144288</v>
+        <v>3.628019428949036</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>1.336316831462692</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>1.401189216021326</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>1.966855307908655</v>
+        <v>1.626630409005325</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>1.197912858979611</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>2.217567799050979</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>1.950353221540246</v>
+        <v>1.216371234267344</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>1.727537197898665</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>2.139672475020404</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>2.210985773414453</v>
+        <v>2.164378481800822</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>3.647228437274408</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>2.100991693542231</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>1.114171399050901</v>
+        <v>3.845906281600109</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>2.777797690741424</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>0.8967077601845341</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>0.1338254721205745</v>
+        <v>1.875884305456199</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>0.6994919452575576</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>0.782207885866093</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>1.823564868738359</v>
+        <v>-0.2388228654152447</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>-1.432689847121871</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>-0.7896638887521124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>1.508385007449875</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>2.033479419175133</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.6266145540918089</v>
+      <c r="E19">
+        <v>1.424898175306621</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>3.845906281600109</v>
+        <v>3.933586883651374</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>1.875884305456199</v>
+        <v>2.073300717643933</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>-0.2388228654152447</v>
+        <v>1.589741018019208</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>-0.7896638887521124</v>
+        <v>-0.2229989129682308</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>1.424898175306621</v>
+        <v>1.562315774899026</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>1.75539628881467</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>1.327368416067398</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>2.213911448916162</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>2.649257112350067</v>
+        <v>2.64925711235009</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +448,7 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>2.533533936850563</v>
+        <v>2.533533936850585</v>
       </c>
       <c r="D4">
         <v>2010</v>
@@ -480,7 +471,7 @@
         <v>2011</v>
       </c>
       <c r="E5">
-        <v>2.332261646026201</v>
+        <v>2.332261646026246</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +482,13 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>1.212544822741002</v>
+        <v>1.21254482274098</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>1.839804681163293</v>
+        <v>1.839804681163337</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="E7">
-        <v>0.670590452940556</v>
+        <v>0.6705904529405782</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +516,13 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>0.4712609263772594</v>
+        <v>0.4712609263772816</v>
       </c>
       <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8">
-        <v>0.8520644823059476</v>
+        <v>0.8520644823059031</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -576,13 +567,13 @@
         <v>2016</v>
       </c>
       <c r="C11">
-        <v>4.109890522944348</v>
+        <v>4.109890522944326</v>
       </c>
       <c r="D11">
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>3.628019428949036</v>
+        <v>3.628019428949014</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -650,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>3.933586883651374</v>
+        <v>3.933586883651397</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +652,13 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>2.777797690741424</v>
+        <v>2.777797690741446</v>
       </c>
       <c r="D16">
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>2.073300717643933</v>
+        <v>2.073300717643911</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>1.589741018019208</v>
+        <v>1.589741018019186</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,7 +686,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>-1.432689847121871</v>
+        <v>-1.432689847121826</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -712,13 +703,13 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>2.033479419175133</v>
+        <v>2.033479419175155</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>1.562315774899026</v>
+        <v>1.562315774899048</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>1.562315774899048</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>2.622852459381209</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>2.447176337618551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
